--- a/public/docs/import-student-orders.xlsx
+++ b/public/docs/import-student-orders.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Đồ án chuyên ngành\tsa-frontend\public\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DACN\tsa-frontend\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9AE278-588B-48BC-BDB7-5C40DE796E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FB0213-E395-44DC-A91A-91B9CB7113CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Phương thức thanh toán (MOMO, CASH, CREDIT)</t>
   </si>
   <si>
-    <t>F123</t>
-  </si>
-  <si>
     <t>Mũ</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>MOMO</t>
   </si>
   <si>
-    <t>F1234</t>
-  </si>
-  <si>
     <t>Quần</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>CASH</t>
   </si>
   <si>
-    <t>F332</t>
-  </si>
-  <si>
     <t>Áo</t>
   </si>
   <si>
@@ -94,6 +85,27 @@
   </si>
   <si>
     <t>CREDIT</t>
+  </si>
+  <si>
+    <t>Sàn thương mại</t>
+  </si>
+  <si>
+    <t>Shopee</t>
+  </si>
+  <si>
+    <t>Tiktok shop</t>
+  </si>
+  <si>
+    <t>Lazada</t>
+  </si>
+  <si>
+    <t>MU1</t>
+  </si>
+  <si>
+    <t>MU2</t>
+  </si>
+  <si>
+    <t>MU3</t>
   </si>
 </sst>
 </file>
@@ -508,175 +520,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="18.8984375" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" customWidth="1"/>
-    <col min="5" max="5" width="13.8984375" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" customWidth="1"/>
-    <col min="7" max="7" width="40.09765625" customWidth="1"/>
-    <col min="8" max="8" width="29.3984375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="29.296875" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="14.69921875" customWidth="1"/>
+    <col min="8" max="8" width="40.09765625" customWidth="1"/>
+    <col min="9" max="9" width="29.3984375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="29.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12"/>
       <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7">
+        <v>312</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7">
-        <v>312</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="H3" s="7">
+        <v>231</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="7">
-        <v>231</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="7">
+        <v>201</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7">
-        <v>201</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -684,12 +711,13 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -697,12 +725,13 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -710,12 +739,13 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -723,12 +753,13 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -736,12 +767,13 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -749,12 +781,13 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -762,12 +795,13 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -775,12 +809,13 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -788,12 +823,13 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -801,12 +837,13 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -814,12 +851,13 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -827,12 +865,13 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -840,12 +879,13 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -853,12 +893,13 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -866,15 +907,16 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/public/docs/import-student-orders.xlsx
+++ b/public/docs/import-student-orders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DACN\tsa-frontend\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FB0213-E395-44DC-A91A-91B9CB7113CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5217E2-E62F-4D6F-8A2E-24CFF025E603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,13 +99,13 @@
     <t>Lazada</t>
   </si>
   <si>
-    <t>MU1</t>
-  </si>
-  <si>
-    <t>MU2</t>
-  </si>
-  <si>
-    <t>MU3</t>
+    <t>TU1</t>
+  </si>
+  <si>
+    <t>TU2</t>
+  </si>
+  <si>
+    <t>TU3</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
